--- a/test_output/persistence_tests/yield_table.xlsx
+++ b/test_output/persistence_tests/yield_table.xlsx
@@ -525,13 +525,13 @@
         <v>500</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5035701874880928</v>
+        <v>0.511019023580748</v>
       </c>
       <c r="D2" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05511232556207867</v>
+        <v>0.05675483310665119</v>
       </c>
       <c r="H2" t="n">
-        <v>4.128348216975777</v>
+        <v>4.226798047848368</v>
       </c>
       <c r="I2" t="n">
         <v>480</v>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>93.61</v>
+        <v>93.62</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -577,40 +577,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B3" t="n">
-        <v>22.15</v>
+        <v>22.11</v>
       </c>
       <c r="C3" t="n">
-        <v>2.878895800084226</v>
+        <v>2.879129582323678</v>
       </c>
       <c r="D3" t="n">
         <v>2.88</v>
       </c>
       <c r="E3" t="n">
-        <v>22.63611332280074</v>
+        <v>22.63588915782518</v>
       </c>
       <c r="F3" t="n">
         <v>22.57</v>
       </c>
       <c r="G3" t="n">
-        <v>1.765251882318091</v>
+        <v>1.761935450383476</v>
       </c>
       <c r="H3" t="n">
-        <v>66.4130955748477</v>
+        <v>66.28619713392969</v>
       </c>
       <c r="I3" t="n">
         <v>480</v>
       </c>
       <c r="J3" t="n">
-        <v>1.383606157809327</v>
+        <v>1.380962440290202</v>
       </c>
       <c r="K3" t="n">
         <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>320.53</v>
+        <v>319.93</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -632,40 +632,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B4" t="n">
-        <v>53.23</v>
+        <v>53.6</v>
       </c>
       <c r="C4" t="n">
-        <v>4.518702477523484</v>
+        <v>4.519986719273934</v>
       </c>
       <c r="D4" t="n">
         <v>4.52</v>
       </c>
       <c r="E4" t="n">
-        <v>36.093339241028</v>
+        <v>36.09334023314045</v>
       </c>
       <c r="F4" t="n">
-        <v>36.02</v>
+        <v>36.03</v>
       </c>
       <c r="G4" t="n">
-        <v>2.933880421454721</v>
+        <v>2.953300250376031</v>
       </c>
       <c r="H4" t="n">
-        <v>133.5749317519135</v>
+        <v>134.4745860826723</v>
       </c>
       <c r="I4" t="n">
         <v>480</v>
       </c>
       <c r="J4" t="n">
-        <v>2.782811078164865</v>
+        <v>2.801553876722341</v>
       </c>
       <c r="K4" t="n">
         <v>10</v>
       </c>
       <c r="L4" t="n">
-        <v>968.25</v>
+        <v>974.9</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>

--- a/test_output/persistence_tests/yield_table.xlsx
+++ b/test_output/persistence_tests/yield_table.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,87 +422,87 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>tpa</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>basal_area</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>qmd</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>mean_dbh</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>top_height</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>mean_height</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>ccf</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>sdi</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>max_sdi</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>relsdi</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>age</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>volume</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>merchantable_volume</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>board_feet</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>species</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>site_index</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>initial_tpa</t>
         </is>
@@ -525,10 +513,10 @@
         <v>500</v>
       </c>
       <c r="B2" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="C2" t="n">
-        <v>0.511019023580748</v>
+        <v>0.5126185691505004</v>
       </c>
       <c r="D2" t="n">
         <v>0.5</v>
@@ -540,10 +528,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05675483310665119</v>
+        <v>0.05711068686699131</v>
       </c>
       <c r="H2" t="n">
-        <v>4.226798047848368</v>
+        <v>4.248052843601034</v>
       </c>
       <c r="I2" t="n">
         <v>480</v>
@@ -577,40 +565,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B3" t="n">
-        <v>22.11</v>
+        <v>22.24</v>
       </c>
       <c r="C3" t="n">
-        <v>2.879129582323678</v>
+        <v>2.878962123794901</v>
       </c>
       <c r="D3" t="n">
         <v>2.88</v>
       </c>
       <c r="E3" t="n">
-        <v>22.63588915782518</v>
+        <v>22.63584059186897</v>
       </c>
       <c r="F3" t="n">
         <v>22.57</v>
       </c>
       <c r="G3" t="n">
-        <v>1.761935450383476</v>
+        <v>1.772538660352875</v>
       </c>
       <c r="H3" t="n">
-        <v>66.28619713392969</v>
+        <v>66.68663515389257</v>
       </c>
       <c r="I3" t="n">
         <v>480</v>
       </c>
       <c r="J3" t="n">
-        <v>1.380962440290202</v>
+        <v>1.389304899039429</v>
       </c>
       <c r="K3" t="n">
         <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>319.93</v>
+        <v>321.86</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -632,40 +620,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B4" t="n">
-        <v>53.6</v>
+        <v>50.19</v>
       </c>
       <c r="C4" t="n">
-        <v>4.519986719273934</v>
+        <v>4.360260466518791</v>
       </c>
       <c r="D4" t="n">
-        <v>4.52</v>
+        <v>4.36</v>
       </c>
       <c r="E4" t="n">
-        <v>36.09334023314045</v>
+        <v>36.0926112263078</v>
       </c>
       <c r="F4" t="n">
-        <v>36.03</v>
+        <v>36.02</v>
       </c>
       <c r="G4" t="n">
-        <v>2.953300250376031</v>
+        <v>2.847068023443553</v>
       </c>
       <c r="H4" t="n">
-        <v>134.4745860826723</v>
+        <v>127.7211490456516</v>
       </c>
       <c r="I4" t="n">
         <v>480</v>
       </c>
       <c r="J4" t="n">
-        <v>2.801553876722341</v>
+        <v>2.660857271784409</v>
       </c>
       <c r="K4" t="n">
         <v>10</v>
       </c>
       <c r="L4" t="n">
-        <v>974.9</v>
+        <v>918.85</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>

--- a/test_output/persistence_tests/yield_table.xlsx
+++ b/test_output/persistence_tests/yield_table.xlsx
@@ -513,10 +513,10 @@
         <v>500</v>
       </c>
       <c r="B2" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5126185691505004</v>
+        <v>0.5091693569921298</v>
       </c>
       <c r="D2" t="n">
         <v>0.5</v>
@@ -528,10 +528,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05711068686699131</v>
+        <v>0.05634472104730723</v>
       </c>
       <c r="H2" t="n">
-        <v>4.248052843601034</v>
+        <v>4.202269778071582</v>
       </c>
       <c r="I2" t="n">
         <v>480</v>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>93.62</v>
+        <v>93.61</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -565,40 +565,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B3" t="n">
-        <v>22.24</v>
+        <v>22.29</v>
       </c>
       <c r="C3" t="n">
-        <v>2.878962123794901</v>
+        <v>2.879256230121726</v>
       </c>
       <c r="D3" t="n">
         <v>2.88</v>
       </c>
       <c r="E3" t="n">
-        <v>22.63584059186897</v>
+        <v>22.63594512880691</v>
       </c>
       <c r="F3" t="n">
         <v>22.57</v>
       </c>
       <c r="G3" t="n">
-        <v>1.772538660352875</v>
+        <v>1.776504290531661</v>
       </c>
       <c r="H3" t="n">
-        <v>66.68663515389257</v>
+        <v>66.83313373782879</v>
       </c>
       <c r="I3" t="n">
         <v>480</v>
       </c>
       <c r="J3" t="n">
-        <v>1.389304899039429</v>
+        <v>1.392356952871433</v>
       </c>
       <c r="K3" t="n">
         <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>321.86</v>
+        <v>169.53</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -620,40 +620,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B4" t="n">
-        <v>50.19</v>
+        <v>49.87</v>
       </c>
       <c r="C4" t="n">
-        <v>4.360260466518791</v>
+        <v>4.35991106436567</v>
       </c>
       <c r="D4" t="n">
         <v>4.36</v>
       </c>
       <c r="E4" t="n">
-        <v>36.0926112263078</v>
+        <v>36.09245303066545</v>
       </c>
       <c r="F4" t="n">
         <v>36.02</v>
       </c>
       <c r="G4" t="n">
-        <v>2.847068023443553</v>
+        <v>2.829153345215149</v>
       </c>
       <c r="H4" t="n">
-        <v>127.7211490456516</v>
+        <v>126.9131645197708</v>
       </c>
       <c r="I4" t="n">
         <v>480</v>
       </c>
       <c r="J4" t="n">
-        <v>2.660857271784409</v>
+        <v>2.644024260828557</v>
       </c>
       <c r="K4" t="n">
         <v>10</v>
       </c>
       <c r="L4" t="n">
-        <v>918.85</v>
+        <v>694.28</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
